--- a/data/instance/50/schedule_21.xlsx
+++ b/data/instance/50/schedule_21.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skye/Desktop/NTU-MSAI/Semester_1/AI-Project/SCALE_Demo_toNCS_200313/test_200304/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianingju/Downloads/URECA/Project files/Bi-objective 2016 v1/data/instance/50/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED80A8E-E107-764C-A655-5120F1BC9949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0B93F7-AF70-4743-9DA5-8055730F4AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="980" windowWidth="16120" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="500" windowWidth="16120" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FlightSchedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -336,17 +336,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -385,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,16 +688,16 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="7" max="8" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -749,7 +749,7 @@
         <v>5.7472840295336329</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -775,7 +775,7 @@
         <v>9.3463885150364447</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -801,7 +801,7 @@
         <v>3.8335251414072795</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -827,7 +827,7 @@
         <v>1.8818094718359211</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -853,7 +853,7 @@
         <v>5.7415425789148662</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -879,7 +879,7 @@
         <v>3.8889502462164307</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1.3696070512781557</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -931,7 +931,7 @@
         <v>8.3439335324182906</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -957,7 +957,7 @@
         <v>2.3787342647769254</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -983,7 +983,7 @@
         <v>8.5681386090189857</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>5.7443882274607443</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>9.1463831086991476</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>5.1904403347392947</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>4.8926672057114473</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>6.2684916376210182</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>6.1552351539650552</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>3.1559043258259605</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>3.0693741414334679</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>5.2705876800361189</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>7.977614660667677</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>1.7072891844794511</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>2.8009191861869986</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1.4966028802843609</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>3.1794052942948636</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1.5496465058948425</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>8.6139967769448447</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>1.7785012484114364</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>3.9512647874233338</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>4.2394639188470764</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>9.5310534455105689</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>2.8468136349412165</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>1.8031150590159817</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>4.2796178378625216</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>3.3567122943484669</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>9.4657745615900524</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>5.3740224384644772</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>3.9512129075839151</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>6.4838984524920873</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>5.3789837831759462</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>4.8133837320254642</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>6.8112296816717199</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>5.1616188323444412</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>9.0015206515642774</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>5.2546773052773617</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>4.7537509431371969</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>2.7512406954099684</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>3.5664011264536208</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>1.1591050721272773</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>6.9118135784542556</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
